--- a/Document/Concern.xlsx
+++ b/Document/Concern.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -50,13 +50,16 @@
   </si>
   <si>
     <t>Số</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,10 +192,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,21 +401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="89.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -425,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -433,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -441,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -449,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -457,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -465,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -473,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -481,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -489,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -497,9 +498,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
